--- a/CASOS LIQUIDACION NOMINA (1).xlsx
+++ b/CASOS LIQUIDACION NOMINA (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valery Monsalve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b12s307\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A0E4A0-F88B-4429-8191-A5885BFD13E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF4C0E-7C29-4852-A764-CEE1A4E2E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49D74A96-38C5-42CC-8817-FB8D43E08D1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49D74A96-38C5-42CC-8817-FB8D43E08D1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +181,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +208,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -211,10 +223,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -231,8 +244,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -249,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -395,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +563,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +590,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="6"/>
       <c r="J1" s="7" t="s">
         <v>34</v>
@@ -683,7 +698,7 @@
         <v>7736.25</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F13" si="1">IF(B4&lt;2847000, "162000", "0")</f>
+        <f t="shared" ref="F4:F12" si="1">IF(B4&lt;2847000, "162000", "0")</f>
         <v>162000</v>
       </c>
       <c r="G4" s="2">
@@ -952,11 +967,12 @@
         <v>300000</v>
       </c>
       <c r="I10" s="2">
-        <v>1600000</v>
+        <f>(B10+E10+H10)*0.08+1400000</f>
+        <v>1709941.44</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>2274268</v>
+        <v>2164326.56</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>14</v>
